--- a/Vincent/Frequenzaufspaltung.xlsx
+++ b/Vincent/Frequenzaufspaltung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\fp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\GitHub\Zeeman-Effekt\Vincent\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,12 +448,12 @@
         <v>1290.9000000000001</v>
       </c>
       <c r="E5">
-        <f>($N$5/$M$5)*10^-9*((D5^2)-(C5^2))/(2*$L$5^2)</f>
-        <v>21.480451276276064</v>
+        <f>0.5*($N$5/$M$5)*10^-9*((D5^2)-(C5^2))/(2*$L$5^2)</f>
+        <v>10.740225638138032</v>
       </c>
       <c r="F5">
-        <f>((2* PI())/$N$5)*E5*10^7</f>
-        <v>4.5018564326445887</v>
+        <f t="shared" ref="F5:F10" si="0">((2* PI())/$N$5)*E5*10^7</f>
+        <v>2.2509282163222943</v>
       </c>
       <c r="G5">
         <v>96</v>
@@ -493,12 +493,12 @@
         <v>1279.3</v>
       </c>
       <c r="E6">
-        <f>($N$5/$M$5)*10^-9*((D6^2)-(C6^2))/(2*$L$5^2)</f>
-        <v>20.21347043502357</v>
+        <f>0.5*($N$5/$M$5)*10^-9*((D6^2)-(C6^2))/(2*$L$5^2)</f>
+        <v>10.106735217511785</v>
       </c>
       <c r="F6">
-        <f>((2* PI())/$N$5)*E6*10^7</f>
-        <v>4.2363235638575407</v>
+        <f t="shared" si="0"/>
+        <v>2.1181617819287704</v>
       </c>
       <c r="G6">
         <v>96</v>
@@ -507,11 +507,11 @@
         <v>96</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I10" si="0">10^(-9)*($N$5/$M$5)*SQRT(((C6/($L$5^2))*G6)^2+((D6/($L$5^2))*H6)^2+((((C6^2)-(D6^2))/($L$5^3))*$L$7)^2)</f>
+        <f t="shared" ref="I6:I10" si="1">10^(-9)*($N$5/$M$5)*SQRT(((C6/($L$5^2))*G6)^2+((D6/($L$5^2))*H6)^2+((((C6^2)-(D6^2))/($L$5^3))*$L$7)^2)</f>
         <v>7.691576500455418</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J10" si="1" xml:space="preserve"> 2*(PI()/$N$5)*I6*10^7</f>
+        <f t="shared" ref="J6:J10" si="2" xml:space="preserve"> 2*(PI()/$N$5)*I6*10^7</f>
         <v>1.6119946783425372</v>
       </c>
       <c r="L6" t="s">
@@ -529,12 +529,12 @@
         <v>1264.3</v>
       </c>
       <c r="E7">
-        <f>($N$5/$M$5)*10^-9*((D7^2)-(C7^2))/(2*$L$5^2)</f>
-        <v>18.44301036807833</v>
+        <f>0.5*($N$5/$M$5)*10^-9*((D7^2)-(C7^2))/(2*$L$5^2)</f>
+        <v>9.2215051840391649</v>
       </c>
       <c r="F7">
-        <f>((2* PI())/$N$5)*E7*10^7</f>
-        <v>3.8652719067668628</v>
+        <f t="shared" si="0"/>
+        <v>1.9326359533834314</v>
       </c>
       <c r="G7">
         <v>96</v>
@@ -543,11 +543,11 @@
         <v>96</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5443442887965801</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5811378648322516</v>
       </c>
       <c r="L7">
@@ -566,12 +566,12 @@
         <v>1241.7</v>
       </c>
       <c r="E8">
-        <f>($N$5/$M$5)*10^-9*((D8^2)-(C8^2))/(2*$L$5^2)</f>
-        <v>15.599148483292431</v>
+        <f>0.5*($N$5/$M$5)*10^-9*((D8^2)-(C8^2))/(2*$L$5^2)</f>
+        <v>7.7995742416462157</v>
       </c>
       <c r="F8">
-        <f>((2* PI())/$N$5)*E8*10^7</f>
-        <v>3.2692575235068628</v>
+        <f t="shared" si="0"/>
+        <v>1.6346287617534314</v>
       </c>
       <c r="G8">
         <v>96</v>
@@ -580,11 +580,11 @@
         <v>96</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3435055771221922</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5390462423404108</v>
       </c>
     </row>
@@ -599,12 +599,12 @@
         <v>1211.5999999999999</v>
       </c>
       <c r="E9">
-        <f>($N$5/$M$5)*10^-9*((D9^2)-(C9^2))/(2*$L$5^2)</f>
-        <v>12.298915031134575</v>
+        <f>0.5*($N$5/$M$5)*10^-9*((D9^2)-(C9^2))/(2*$L$5^2)</f>
+        <v>6.1494575155672875</v>
       </c>
       <c r="F9">
-        <f>((2* PI())/$N$5)*E9*10^7</f>
-        <v>2.5775971386882897</v>
+        <f t="shared" si="0"/>
+        <v>1.2887985693441448</v>
       </c>
       <c r="G9">
         <v>96</v>
@@ -613,11 +613,11 @@
         <v>96</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1287786479201749</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4940439379168646</v>
       </c>
     </row>
@@ -632,12 +632,12 @@
         <v>1166.5</v>
       </c>
       <c r="E10">
-        <f>($N$5/$M$5)*10^-9*((D10^2)-(C10^2))/(2*$L$5^2)</f>
-        <v>8.1734180279195083</v>
+        <f>0.5*($N$5/$M$5)*10^-9*((D10^2)-(C10^2))/(2*$L$5^2)</f>
+        <v>4.0867090139597542</v>
       </c>
       <c r="F10">
-        <f>((2* PI())/$N$5)*E10*10^7</f>
-        <v>1.7129786545183658</v>
+        <f t="shared" si="0"/>
+        <v>0.85648932725918292</v>
       </c>
       <c r="G10">
         <v>96</v>
@@ -646,11 +646,11 @@
         <v>96</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.883307847388151</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4425983566211866</v>
       </c>
     </row>

--- a/Vincent/Frequenzaufspaltung.xlsx
+++ b/Vincent/Frequenzaufspaltung.xlsx
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,18 +442,18 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>850.38</v>
+        <v>823.81</v>
       </c>
       <c r="D5">
-        <v>1290.9000000000001</v>
+        <v>1250.5</v>
       </c>
       <c r="E5">
-        <f>0.5*($N$5/$M$5)*10^-9*((D5^2)-(C5^2))/(2*$L$5^2)</f>
-        <v>10.740225638138032</v>
+        <f t="shared" ref="E5:E10" si="0">0.5*($N$5/$M$5)*10^-9*((D5^2)-(C5^2))/(2*$L$5^2)</f>
+        <v>10.077677125085467</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F10" si="0">((2* PI())/$N$5)*E5*10^7</f>
-        <v>2.2509282163222943</v>
+        <f t="shared" ref="F5:F10" si="1">((2* PI())/$N$5)*E5*10^7</f>
+        <v>2.1120718093007613</v>
       </c>
       <c r="G5">
         <v>96</v>
@@ -463,11 +463,11 @@
       </c>
       <c r="I5">
         <f>10^(-9)*($N$5/$M$5)*SQRT(((C5/($L$5^2))*G5)^2+((D5/($L$5^2))*H5)^2+((((C5^2)-(D5^2))/($L$5^3))*$L$7)^2)</f>
-        <v>7.8095654474988159</v>
+        <v>7.5063766508717968</v>
       </c>
       <c r="J5">
         <f xml:space="preserve"> 2*(PI()/$N$5)*I5*10^7</f>
-        <v>1.6367227109800511</v>
+        <v>1.5731806365214673</v>
       </c>
       <c r="L5">
         <f>109.8*10^3</f>
@@ -487,18 +487,18 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>865.43</v>
+        <v>838.39</v>
       </c>
       <c r="D6">
-        <v>1279.3</v>
+        <v>1239.4000000000001</v>
       </c>
       <c r="E6">
-        <f>0.5*($N$5/$M$5)*10^-9*((D6^2)-(C6^2))/(2*$L$5^2)</f>
-        <v>10.106735217511785</v>
+        <f t="shared" si="0"/>
+        <v>9.4870495482228989</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>2.1181617819287704</v>
+        <f t="shared" si="1"/>
+        <v>1.9882885366870864</v>
       </c>
       <c r="G6">
         <v>96</v>
@@ -507,12 +507,12 @@
         <v>96</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I10" si="1">10^(-9)*($N$5/$M$5)*SQRT(((C6/($L$5^2))*G6)^2+((D6/($L$5^2))*H6)^2+((((C6^2)-(D6^2))/($L$5^3))*$L$7)^2)</f>
-        <v>7.691576500455418</v>
+        <f t="shared" ref="I6:I10" si="2">10^(-9)*($N$5/$M$5)*SQRT(((C6/($L$5^2))*G6)^2+((D6/($L$5^2))*H6)^2+((((C6^2)-(D6^2))/($L$5^3))*$L$7)^2)</f>
+        <v>7.3991262399648674</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J10" si="2" xml:space="preserve"> 2*(PI()/$N$5)*I6*10^7</f>
-        <v>1.6119946783425372</v>
+        <f t="shared" ref="J6:J10" si="3" xml:space="preserve"> 2*(PI()/$N$5)*I6*10^7</f>
+        <v>1.5507031780158169</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -523,18 +523,18 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>888.01</v>
+        <v>860.26</v>
       </c>
       <c r="D7">
-        <v>1264.3</v>
+        <v>1224.8</v>
       </c>
       <c r="E7">
-        <f>0.5*($N$5/$M$5)*10^-9*((D7^2)-(C7^2))/(2*$L$5^2)</f>
-        <v>9.2215051840391649</v>
+        <f t="shared" si="0"/>
+        <v>8.6544218447013606</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>1.9326359533834314</v>
+        <f t="shared" si="1"/>
+        <v>1.8137870639346778</v>
       </c>
       <c r="G7">
         <v>96</v>
@@ -543,12 +543,12 @@
         <v>96</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>7.5443442887965801</v>
+        <f t="shared" si="2"/>
+        <v>7.2639401333293634</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>1.5811378648322516</v>
+        <f t="shared" si="3"/>
+        <v>1.5223709779175179</v>
       </c>
       <c r="L7">
         <f>10* 10^3</f>
@@ -560,18 +560,18 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>925.64</v>
+        <v>896.71</v>
       </c>
       <c r="D8">
-        <v>1241.7</v>
+        <v>1202.9000000000001</v>
       </c>
       <c r="E8">
-        <f>0.5*($N$5/$M$5)*10^-9*((D8^2)-(C8^2))/(2*$L$5^2)</f>
-        <v>7.7995742416462157</v>
+        <f t="shared" si="0"/>
+        <v>7.3198798004049124</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>1.6346287617534314</v>
+        <f t="shared" si="1"/>
+        <v>1.5340947702543293</v>
       </c>
       <c r="G8">
         <v>96</v>
@@ -580,12 +580,12 @@
         <v>96</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>7.3435055771221922</v>
+        <f t="shared" si="2"/>
+        <v>7.0812061355450435</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>1.5390462423404108</v>
+        <f t="shared" si="3"/>
+        <v>1.4840737274171636</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -593,18 +593,18 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>963.27</v>
+        <v>933.16</v>
       </c>
       <c r="D9">
-        <v>1211.5999999999999</v>
+        <v>1173.7</v>
       </c>
       <c r="E9">
-        <f>0.5*($N$5/$M$5)*10^-9*((D9^2)-(C9^2))/(2*$L$5^2)</f>
-        <v>6.1494575155672875</v>
+        <f t="shared" si="0"/>
+        <v>5.7702854629776406</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.2887985693441448</v>
+        <f t="shared" si="1"/>
+        <v>1.2093319826288549</v>
       </c>
       <c r="G9">
         <v>96</v>
@@ -613,12 +613,12 @@
         <v>96</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>7.1287786479201749</v>
+        <f t="shared" si="2"/>
+        <v>6.884757325630531</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>1.4940439379168646</v>
+        <f t="shared" si="3"/>
+        <v>1.442902137154729</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -626,18 +626,18 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>1000.9</v>
+        <v>969.62</v>
       </c>
       <c r="D10">
-        <v>1166.5</v>
+        <v>1130</v>
       </c>
       <c r="E10">
-        <f>0.5*($N$5/$M$5)*10^-9*((D10^2)-(C10^2))/(2*$L$5^2)</f>
-        <v>4.0867090139597542</v>
+        <f t="shared" si="0"/>
+        <v>3.8341157899477571</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.85648932725918292</v>
+        <f t="shared" si="1"/>
+        <v>0.80355103393679128</v>
       </c>
       <c r="G10">
         <v>96</v>
@@ -646,12 +646,12 @@
         <v>96</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>6.883307847388151</v>
+        <f t="shared" si="2"/>
+        <v>6.6583552881909149</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>1.4425983566211866</v>
+        <f t="shared" si="3"/>
+        <v>1.395452972539782</v>
       </c>
     </row>
   </sheetData>
